--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elecm\Dropbox\Projects\Corona Australia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B48413-6B5F-4051-A807-C1DC4B1C746E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6E3DEE-1460-4171-9AE0-AB772FCE2EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="2580" windowWidth="34560" windowHeight="18492"/>
+    <workbookView xWindow="4884" yWindow="4884" windowWidth="34560" windowHeight="18492"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -20,93 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Last Update</t>
+    <t>Day</t>
   </si>
   <si>
-    <t>Confirmed</t>
+    <t>VIC</t>
   </si>
   <si>
-    <t>Delta Confirmed</t>
+    <t>NSW</t>
   </si>
   <si>
-    <t>Growth %</t>
+    <t>AUS</t>
   </si>
   <si>
-    <t>Avg Grown %</t>
+    <t>SAN</t>
   </si>
   <si>
-    <t>2020-02-01T07:12:00.000Z</t>
+    <t>CAL</t>
   </si>
   <si>
-    <t>2020-02-01T07:12:49.000Z</t>
+    <t>US</t>
   </si>
   <si>
-    <t>2020-02-13T06:53:03.000Z</t>
-  </si>
-  <si>
-    <t>2020-02-28T15:03:10.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-01T13:53:03.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-04T01:43:03.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-05T07:33:03.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-06T15:03:30.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-09T07:33:03.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-10T03:33:13.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-11T07:52:04.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-14T02:33:04.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-15T07:20:19.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-16T03:38:45.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-17T01:53:09.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-18T01:13:09.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-21T02:13:35.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-22T12:48:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-23T12:23:20.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-24T12:41:50.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-25T12:37:49.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-26T12:53:24.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-27T12:27:48.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-28T12:11:06.000Z</t>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -590,8 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -665,6 +603,52 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Percent COVID-19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>growth per day (active</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> cases)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>, averaged over 5 day</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> window</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -705,11 +689,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$D$1</c:f>
+              <c:f>output!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Growth %</c:v>
+                  <c:v>VIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,91 +711,242 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>output!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>2020-02-01T07:12:00.000Z</c:v>
+                  <c:v>43852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-02-01T07:12:49.000Z</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-02-13T06:53:03.000Z</c:v>
+                  <c:v>43854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-02-28T15:03:10.000Z</c:v>
+                  <c:v>43855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-03-01T13:53:03.000Z</c:v>
+                  <c:v>43856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-03-04T01:43:03.000Z</c:v>
+                  <c:v>43857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-03-05T07:33:03.000Z</c:v>
+                  <c:v>43858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-03-06T15:03:30.000Z</c:v>
+                  <c:v>43859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-03-09T07:33:03.000Z</c:v>
+                  <c:v>43860</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-03-10T03:33:13.000Z</c:v>
+                  <c:v>43861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-03-11T07:52:04.000Z</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-03-14T02:33:04.000Z</c:v>
+                  <c:v>43863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-03-15T07:20:19.000Z</c:v>
+                  <c:v>43864</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-03-16T03:38:45.000Z</c:v>
+                  <c:v>43865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-03-17T01:53:09.000Z</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-03-18T01:13:09.000Z</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-03-21T02:13:35.000Z</c:v>
+                  <c:v>43868</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-03-22T12:48:00.000Z</c:v>
+                  <c:v>43869</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-03-23T12:23:20.000Z</c:v>
+                  <c:v>43870</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-03-24T12:41:50.000Z</c:v>
+                  <c:v>43871</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-03-25T12:37:49.000Z</c:v>
+                  <c:v>43872</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-03-26T12:53:24.000Z</c:v>
+                  <c:v>43873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-03-27T12:27:48.000Z</c:v>
+                  <c:v>43874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-03-28T12:11:06.000Z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$D$2:$D$25</c:f>
+              <c:f>output!$B$2:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -822,67 +957,217 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,7 +1175,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A12-4D47-9712-3A8A1E855FAF}"/>
+              <c16:uniqueId val="{00000000-D248-4196-8F27-442B323BEDBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -899,11 +1184,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$E$1</c:f>
+              <c:f>output!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg Grown %</c:v>
+                  <c:v>NSW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -921,91 +1206,242 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>output!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>2020-02-01T07:12:00.000Z</c:v>
+                  <c:v>43852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-02-01T07:12:49.000Z</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-02-13T06:53:03.000Z</c:v>
+                  <c:v>43854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-02-28T15:03:10.000Z</c:v>
+                  <c:v>43855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-03-01T13:53:03.000Z</c:v>
+                  <c:v>43856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-03-04T01:43:03.000Z</c:v>
+                  <c:v>43857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-03-05T07:33:03.000Z</c:v>
+                  <c:v>43858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-03-06T15:03:30.000Z</c:v>
+                  <c:v>43859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-03-09T07:33:03.000Z</c:v>
+                  <c:v>43860</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-03-10T03:33:13.000Z</c:v>
+                  <c:v>43861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-03-11T07:52:04.000Z</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-03-14T02:33:04.000Z</c:v>
+                  <c:v>43863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-03-15T07:20:19.000Z</c:v>
+                  <c:v>43864</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-03-16T03:38:45.000Z</c:v>
+                  <c:v>43865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-03-17T01:53:09.000Z</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-03-18T01:13:09.000Z</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-03-21T02:13:35.000Z</c:v>
+                  <c:v>43868</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-03-22T12:48:00.000Z</c:v>
+                  <c:v>43869</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-03-23T12:23:20.000Z</c:v>
+                  <c:v>43870</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-03-24T12:41:50.000Z</c:v>
+                  <c:v>43871</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-03-25T12:37:49.000Z</c:v>
+                  <c:v>43872</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-03-26T12:53:24.000Z</c:v>
+                  <c:v>43873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-03-27T12:27:48.000Z</c:v>
+                  <c:v>43874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-03-28T12:11:06.000Z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$E$2:$E$25</c:f>
+              <c:f>output!$C$2:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1019,64 +1455,214 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1670,2484 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A12-4D47-9712-3A8A1E855FAF}"/>
+              <c16:uniqueId val="{00000001-D248-4196-8F27-442B323BEDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$D$2:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D248-4196-8F27-442B323BEDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$E$2:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D248-4196-8F27-442B323BEDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$F$2:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D248-4196-8F27-442B323BEDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$G$2:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D248-4196-8F27-442B323BEDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$H$2:$H$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D248-4196-8F27-442B323BEDBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1097,18 +4160,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="604012671"/>
-        <c:axId val="271476335"/>
+        <c:axId val="1294819615"/>
+        <c:axId val="1293113663"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="604012671"/>
+      <c:dateAx>
+        <c:axId val="1294819615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1144,17 +4207,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271476335"/>
+        <c:crossAx val="1293113663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="271476335"/>
+        <c:axId val="1293113663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1203,7 +4267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604012671"/>
+        <c:crossAx val="1294819615"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1850,23 +4914,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EACB6D5-831A-493E-BB71-F66FA65D3FBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409614F7-F535-4C7C-A5D5-D3E592691DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,18 +5248,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2211,413 +5275,1938 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43852</v>
+      </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-5</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B24">
+        <v>-20</v>
+      </c>
+      <c r="C24">
+        <v>-20</v>
+      </c>
+      <c r="D24">
+        <v>-9</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B25">
+        <v>-20</v>
+      </c>
+      <c r="C25">
+        <v>-20</v>
+      </c>
+      <c r="D25">
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B26">
+        <v>-20</v>
+      </c>
+      <c r="C26">
+        <v>-20</v>
+      </c>
+      <c r="D26">
+        <v>-9</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B27">
+        <v>-20</v>
+      </c>
+      <c r="C27">
+        <v>-20</v>
+      </c>
+      <c r="D27">
+        <v>-9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B28">
+        <v>-20</v>
+      </c>
+      <c r="C28">
+        <v>-20</v>
+      </c>
+      <c r="D28">
+        <v>-15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>-6</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>-6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>-6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>42</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>88</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>27</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>92</v>
+      </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>31</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>94</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>37</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>35</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>37</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B51">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>38</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B52">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>34</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>-6</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>-11</v>
+      </c>
+      <c r="G53">
+        <v>34</v>
+      </c>
+      <c r="H53">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B54">
+        <v>-7</v>
+      </c>
+      <c r="C54">
+        <v>-12</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>-11</v>
+      </c>
+      <c r="G54">
+        <v>36</v>
+      </c>
+      <c r="H54">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B55">
+        <v>-11</v>
+      </c>
+      <c r="C55">
+        <v>-12</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>-6</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B56">
+        <v>-10</v>
+      </c>
+      <c r="C56">
+        <v>-10</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>-4</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B57">
+        <v>-3</v>
+      </c>
+      <c r="C57">
+        <v>-6</v>
+      </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>-4</v>
+      </c>
+      <c r="G57">
+        <v>31</v>
+      </c>
+      <c r="H57">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>29</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>23</v>
+      </c>
+      <c r="G59">
+        <v>39</v>
+      </c>
+      <c r="H59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>42</v>
+      </c>
+      <c r="H60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B61">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>42</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>41</v>
+      </c>
+      <c r="H62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>23</v>
+      </c>
+      <c r="G63">
+        <v>43</v>
+      </c>
+      <c r="H63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>32</v>
+      </c>
+      <c r="H64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <v>28</v>
+      </c>
+      <c r="H65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>23</v>
+      </c>
+      <c r="G66">
+        <v>27</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>23</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>22</v>
+      </c>
+      <c r="H68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>21</v>
+      </c>
+      <c r="H69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>19</v>
+      </c>
+      <c r="H70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>17</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B75">
+        <v>-2</v>
+      </c>
+      <c r="C75">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="D75">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E75">
+        <v>17</v>
+      </c>
+      <c r="F75">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G75">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>57</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>94</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>121</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>229</v>
-      </c>
-      <c r="C18">
-        <v>108</v>
-      </c>
-      <c r="D18">
-        <v>29</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>296</v>
-      </c>
-      <c r="C19">
-        <v>67</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>355</v>
-      </c>
-      <c r="C20">
-        <v>59</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>411</v>
-      </c>
-      <c r="C21">
-        <v>56</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>466</v>
-      </c>
-      <c r="C22">
-        <v>55</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>520</v>
-      </c>
-      <c r="C23">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>574</v>
-      </c>
-      <c r="C24">
-        <v>54</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>685</v>
-      </c>
-      <c r="C25">
-        <v>111</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
+      <c r="H75">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elecm\Dropbox\Projects\Corona Australia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6E3DEE-1460-4171-9AE0-AB772FCE2EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C83313-804E-43F1-BF76-B7CFFCA9C405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="4884" windowWidth="34560" windowHeight="18492"/>
+    <workbookView xWindow="5232" yWindow="5232" windowWidth="34560" windowHeight="18492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,83 +605,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Percent COVID-19</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>growth per day (active</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> cases)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>, averaged over 5 day</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> window</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -712,230 +639,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -943,10 +771,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$B$2:$B$75</c:f>
+              <c:f>output!$B$35:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,169 +833,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.2857142857142794</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>13.1881533101045</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>18.902439024390201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-20</c:v>
+                  <c:v>26.204026325977502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-20</c:v>
+                  <c:v>32.483096093419398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-20</c:v>
+                  <c:v>23.197381807705099</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-20</c:v>
+                  <c:v>19.294942783314799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-20</c:v>
+                  <c:v>32.695701316816702</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>25.846602703012199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>22.399391342649999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>26.7404766139678</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>30.243661327343599</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>11.074416537550601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>12.361058284550399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>14.079199877470799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>13.1189700033016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>11.4276319798213</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>11.354036994670199</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>9.5827522190515797</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4.64627878909989</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1.03553833447995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-2</c:v>
+                  <c:v>-1.5072053653822901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +904,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000000-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1207,230 +936,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -1438,10 +1068,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$2:$C$75</c:f>
+              <c:f>output!$C$35:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1479,190 +1109,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.9047619047619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8.8612836438923406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>15.3128965471181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>19.215335571508302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>23.2969682245696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>21.392206319807698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>23.5882269535586</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>21.787776841030499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>22.036281212866601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>23.735898559805399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-20</c:v>
+                  <c:v>28.220747044653901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-20</c:v>
+                  <c:v>24.612759127218101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-20</c:v>
+                  <c:v>23.062371530318899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-20</c:v>
+                  <c:v>21.931562362280399</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-20</c:v>
+                  <c:v>20.989962508052901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>27.444081159354699</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>21.899526703909199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>23.290405531354999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>25.499515417169601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>24.3926747016524</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>16.533177764177601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>19.560437448539201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>17.2370077263603</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>14.7171509085917</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>10.984341478336299</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>9.3801188044132804</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>7.4132556161328704</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>6.0243658179431101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>4.1915061239005897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,7 +1201,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000001-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1702,230 +1233,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -1933,10 +1365,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$D$2:$D$75</c:f>
+              <c:f>output!$D$35:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1953,211 +1385,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>8.8888888888888804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>5.2991452991452901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>8.4241452991452892</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>10.0457669207669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>15.5457669207669</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>12.539230973054501</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>21.280489714313202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>23.215730678168601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>21.594109056547001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>29.5556475180855</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>29.4204210136906</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>28.465334433603999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>29.309152510339</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9</c:v>
+                  <c:v>33.468696669883201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9</c:v>
+                  <c:v>25.431686510231501</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9</c:v>
+                  <c:v>23.7661927265111</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9</c:v>
+                  <c:v>22.928778022570999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-15</c:v>
+                  <c:v>24.4125817788143</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6</c:v>
+                  <c:v>27.054579045089099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6</c:v>
+                  <c:v>24.002444704381301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-6</c:v>
+                  <c:v>24.560914879083601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6</c:v>
+                  <c:v>24.540450829018202</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20</c:v>
+                  <c:v>20.621519637012302</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20</c:v>
+                  <c:v>16.1895020207172</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>16.8552551985028</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>14.2376242808517</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>12.8485911121934</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>9.8494417437247002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>8.6130759547602995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
+                  <c:v>6.2627116212255798</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7</c:v>
+                  <c:v>4.59457041977464</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>3.3585719313365399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,7 +1498,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000002-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2197,230 +1530,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -2428,10 +1662,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$E$2:$E$75</c:f>
+              <c:f>output!$E$35:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2517,142 +1751,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5.8064516129032198</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>8.3064516129032206</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>9.2842293906810003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>13.8605005771216</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>17.170845404707801</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>15.447234028491</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>16.387037468294402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>16.7090500469108</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>15.597345789604001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>16.582302975440602</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>15.5381367719034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>14.880107912435699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17</c:v>
+                  <c:v>16.632949134988898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2660,7 +1795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000003-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2692,230 +1827,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -2923,10 +1959,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$F$2:$F$75</c:f>
+              <c:f>output!$F$35:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2976,178 +2012,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.5714285714285703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>9.1063122923587994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>14.888302813685801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>19.079479284274001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>24.246652536553601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>25.95541720184</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>26.4205334809098</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>22.344425312523999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>23.4649019584669</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>23.008649477065202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>19.952026430991499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>19.071429416066099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>22.9719827066893</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>21.710595419061001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>20.576845066189499</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>23.388051554716299</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>23.171215358536401</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>19.414440026170801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>18.3451170257534</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>19.181354428976</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>16.135708184590499</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>15.127256115118501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>16.1797697169632</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>15.484541174192</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12</c:v>
+                  <c:v>12.4494449638327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,7 +2092,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000004-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3187,230 +2124,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -3418,231 +2256,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$G$2:$G$75</c:f>
+              <c:f>output!$G$35:$G$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>14.136524822695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>14.513883313260999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>14.8842536836314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>5.4297082290859802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>7.78185876672039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>11.111020218535099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>15.0518435461509</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>19.728202147743101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>27.1827476022886</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>30.719900547241298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>35.462547606064803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>37.062733134821698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>34.653799438449703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>36.758147264536603</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>38.089410773643301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>33.511298405009498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3</c:v>
+                  <c:v>33.911987544725001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5</c:v>
+                  <c:v>36.368531891776001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3</c:v>
+                  <c:v>30.008544967944601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3</c:v>
+                  <c:v>29.664925016749301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>31.414946877656899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>29.117491407521001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>39.389456995141401</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>41.628942937037699</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>41.9083739474924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>40.750680925336603</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>42.609208364053899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>31.682657299681001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>28.174003106328101</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>26.853756630921001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30</c:v>
+                  <c:v>24.427314426783099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42</c:v>
+                  <c:v>22.412437415497902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42</c:v>
+                  <c:v>20.907976393447498</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14</c:v>
+                  <c:v>19.000811204085998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15</c:v>
+                  <c:v>16.7265628634084</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15</c:v>
+                  <c:v>15.093509370239</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
+                  <c:v>14.064758193599999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8</c:v>
+                  <c:v>13.7782665190496</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13</c:v>
+                  <c:v>13.2967795998235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3650,7 +2389,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000005-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3684,230 +2423,131 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$2:$A$75</c:f>
+              <c:f>output!$A$35:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
@@ -3915,10 +2555,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$H$2:$H$75</c:f>
+              <c:f>output!$H$35:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3977,169 +2617,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>11.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>18.508771929824501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>22.8224974200206</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>22.8224974200206</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>40.241852258730297</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>34.4372545575809</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>34.528482627756297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>33.977133375184003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>36.643800041850596</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>28.489151085493901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>30.2652730747505</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>28.677394286871699</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>31.1703982501088</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>33.3780485233329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>24.4121124125089</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>18.366995050808601</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>13.7432726625313</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>7.8748893656952896</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>3.12206065663222</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4.0610267341598201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2.3826652946043501</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12</c:v>
+                  <c:v>2.8029745364278398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,7 +2688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D248-4196-8F27-442B323BEDBB}"/>
+              <c16:uniqueId val="{00000006-AE7C-4C8C-8189-CFE913EE0BE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4160,11 +2701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1294819615"/>
-        <c:axId val="1293113663"/>
+        <c:axId val="1580087919"/>
+        <c:axId val="1416921231"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1294819615"/>
+        <c:axId val="1580087919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,18 +2748,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1293113663"/>
+        <c:crossAx val="1416921231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1293113663"/>
+        <c:axId val="1416921231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4267,7 +2806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1294819615"/>
+        <c:crossAx val="1580087919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4914,23 +3453,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409614F7-F535-4C7C-A5D5-D3E592691DB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9C060D-5FF1-4B25-B550-9F8180254DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4949,6 +3488,1970 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Day</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>VIC</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>NSW</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>AUS</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>SAN</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>CAL</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>US</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>SA</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>43852</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43853</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43854</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43855</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43856</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43857</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>43858</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>43859</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43860</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>43861</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>43862</v>
+          </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>43863</v>
+          </cell>
+          <cell r="B13">
+            <v>0</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>43864</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>43865</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>43866</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>43867</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>43868</v>
+          </cell>
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43869</v>
+          </cell>
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43870</v>
+          </cell>
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43871</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43872</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43873</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43874</v>
+          </cell>
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43875</v>
+          </cell>
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43876</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>0</v>
+          </cell>
+          <cell r="H26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43877</v>
+          </cell>
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43878</v>
+          </cell>
+          <cell r="B28">
+            <v>0</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43879</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+          <cell r="G29">
+            <v>0</v>
+          </cell>
+          <cell r="H29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43880</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43881</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43882</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43883</v>
+          </cell>
+          <cell r="B33">
+            <v>0</v>
+          </cell>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33">
+            <v>0</v>
+          </cell>
+          <cell r="H33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43884</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43885</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>12</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43886</v>
+          </cell>
+          <cell r="B36">
+            <v>0</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+          <cell r="E36">
+            <v>0</v>
+          </cell>
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+          <cell r="G36">
+            <v>11.5833333333333</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43887</v>
+          </cell>
+          <cell r="B37">
+            <v>0</v>
+          </cell>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>14.136524822695</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43888</v>
+          </cell>
+          <cell r="B38">
+            <v>0</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38">
+            <v>14.513883313260999</v>
+          </cell>
+          <cell r="H38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43889</v>
+          </cell>
+          <cell r="B39">
+            <v>0</v>
+          </cell>
+          <cell r="C39">
+            <v>0</v>
+          </cell>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39">
+            <v>14.8842536836314</v>
+          </cell>
+          <cell r="H39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43890</v>
+          </cell>
+          <cell r="B40">
+            <v>0</v>
+          </cell>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40">
+            <v>5.4297082290859802</v>
+          </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43891</v>
+          </cell>
+          <cell r="B41">
+            <v>0</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+          <cell r="G41">
+            <v>7.78185876672039</v>
+          </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43892</v>
+          </cell>
+          <cell r="B42">
+            <v>0</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42">
+            <v>11.111020218535099</v>
+          </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43893</v>
+          </cell>
+          <cell r="B43">
+            <v>0</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43">
+            <v>15.0518435461509</v>
+          </cell>
+          <cell r="H43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43894</v>
+          </cell>
+          <cell r="B44">
+            <v>0</v>
+          </cell>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
+          <cell r="D44">
+            <v>8.8888888888888804</v>
+          </cell>
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+          <cell r="F44">
+            <v>0</v>
+          </cell>
+          <cell r="G44">
+            <v>19.728202147743101</v>
+          </cell>
+          <cell r="H44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43895</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
+          <cell r="D45">
+            <v>5.2991452991452901</v>
+          </cell>
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+          <cell r="G45">
+            <v>27.1827476022886</v>
+          </cell>
+          <cell r="H45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43896</v>
+          </cell>
+          <cell r="B46">
+            <v>0</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+          <cell r="D46">
+            <v>8.4241452991452892</v>
+          </cell>
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+          <cell r="G46">
+            <v>30.719900547241298</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>43897</v>
+          </cell>
+          <cell r="B47">
+            <v>0</v>
+          </cell>
+          <cell r="C47">
+            <v>1.9047619047619</v>
+          </cell>
+          <cell r="D47">
+            <v>10.0457669207669</v>
+          </cell>
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47">
+            <v>35.462547606064803</v>
+          </cell>
+          <cell r="H47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>43898</v>
+          </cell>
+          <cell r="B48">
+            <v>0</v>
+          </cell>
+          <cell r="C48">
+            <v>8.8612836438923406</v>
+          </cell>
+          <cell r="D48">
+            <v>15.5457669207669</v>
+          </cell>
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>37.062733134821698</v>
+          </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>43899</v>
+          </cell>
+          <cell r="B49">
+            <v>0</v>
+          </cell>
+          <cell r="C49">
+            <v>15.3128965471181</v>
+          </cell>
+          <cell r="D49">
+            <v>12.539230973054501</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>34.653799438449703</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>43900</v>
+          </cell>
+          <cell r="B50">
+            <v>0</v>
+          </cell>
+          <cell r="C50">
+            <v>19.215335571508302</v>
+          </cell>
+          <cell r="D50">
+            <v>21.280489714313202</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50">
+            <v>36.758147264536603</v>
+          </cell>
+          <cell r="H50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43901</v>
+          </cell>
+          <cell r="B51">
+            <v>0</v>
+          </cell>
+          <cell r="C51">
+            <v>23.2969682245696</v>
+          </cell>
+          <cell r="D51">
+            <v>23.215730678168601</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>4.5714285714285703</v>
+          </cell>
+          <cell r="G51">
+            <v>38.089410773643301</v>
+          </cell>
+          <cell r="H51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>43902</v>
+          </cell>
+          <cell r="B52">
+            <v>0</v>
+          </cell>
+          <cell r="C52">
+            <v>21.392206319807698</v>
+          </cell>
+          <cell r="D52">
+            <v>21.594109056547001</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+          <cell r="F52">
+            <v>9.1063122923587994</v>
+          </cell>
+          <cell r="G52">
+            <v>33.511298405009498</v>
+          </cell>
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43903</v>
+          </cell>
+          <cell r="B53">
+            <v>0</v>
+          </cell>
+          <cell r="C53">
+            <v>23.5882269535586</v>
+          </cell>
+          <cell r="D53">
+            <v>29.5556475180855</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+          <cell r="F53">
+            <v>14.888302813685801</v>
+          </cell>
+          <cell r="G53">
+            <v>33.911987544725001</v>
+          </cell>
+          <cell r="H53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43904</v>
+          </cell>
+          <cell r="B54">
+            <v>9.2857142857142794</v>
+          </cell>
+          <cell r="C54">
+            <v>21.787776841030499</v>
+          </cell>
+          <cell r="D54">
+            <v>29.4204210136906</v>
+          </cell>
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+          <cell r="F54">
+            <v>19.079479284274001</v>
+          </cell>
+          <cell r="G54">
+            <v>36.368531891776001</v>
+          </cell>
+          <cell r="H54">
+            <v>11.6666666666666</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43905</v>
+          </cell>
+          <cell r="B55">
+            <v>13.1881533101045</v>
+          </cell>
+          <cell r="C55">
+            <v>22.036281212866601</v>
+          </cell>
+          <cell r="D55">
+            <v>28.465334433603999</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+          <cell r="F55">
+            <v>24.246652536553601</v>
+          </cell>
+          <cell r="G55">
+            <v>30.008544967944601</v>
+          </cell>
+          <cell r="H55">
+            <v>18.508771929824501</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43906</v>
+          </cell>
+          <cell r="B56">
+            <v>18.902439024390201</v>
+          </cell>
+          <cell r="C56">
+            <v>23.735898559805399</v>
+          </cell>
+          <cell r="D56">
+            <v>29.309152510339</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+          <cell r="F56">
+            <v>25.95541720184</v>
+          </cell>
+          <cell r="G56">
+            <v>29.664925016749301</v>
+          </cell>
+          <cell r="H56">
+            <v>22.8224974200206</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43907</v>
+          </cell>
+          <cell r="B57">
+            <v>26.204026325977502</v>
+          </cell>
+          <cell r="C57">
+            <v>28.220747044653901</v>
+          </cell>
+          <cell r="D57">
+            <v>33.468696669883201</v>
+          </cell>
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+          <cell r="F57">
+            <v>26.4205334809098</v>
+          </cell>
+          <cell r="G57">
+            <v>31.414946877656899</v>
+          </cell>
+          <cell r="H57">
+            <v>22.8224974200206</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>43908</v>
+          </cell>
+          <cell r="B58">
+            <v>32.483096093419398</v>
+          </cell>
+          <cell r="C58">
+            <v>24.612759127218101</v>
+          </cell>
+          <cell r="D58">
+            <v>25.431686510231501</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>22.344425312523999</v>
+          </cell>
+          <cell r="G58">
+            <v>29.117491407521001</v>
+          </cell>
+          <cell r="H58">
+            <v>40.241852258730297</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>43909</v>
+          </cell>
+          <cell r="B59">
+            <v>23.197381807705099</v>
+          </cell>
+          <cell r="C59">
+            <v>23.062371530318899</v>
+          </cell>
+          <cell r="D59">
+            <v>23.7661927265111</v>
+          </cell>
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+          <cell r="F59">
+            <v>23.4649019584669</v>
+          </cell>
+          <cell r="G59">
+            <v>39.389456995141401</v>
+          </cell>
+          <cell r="H59">
+            <v>34.4372545575809</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>43910</v>
+          </cell>
+          <cell r="B60">
+            <v>19.294942783314799</v>
+          </cell>
+          <cell r="C60">
+            <v>21.931562362280399</v>
+          </cell>
+          <cell r="D60">
+            <v>22.928778022570999</v>
+          </cell>
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+          <cell r="F60">
+            <v>23.008649477065202</v>
+          </cell>
+          <cell r="G60">
+            <v>41.628942937037699</v>
+          </cell>
+          <cell r="H60">
+            <v>34.528482627756297</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>43911</v>
+          </cell>
+          <cell r="B61">
+            <v>32.695701316816702</v>
+          </cell>
+          <cell r="C61">
+            <v>20.989962508052901</v>
+          </cell>
+          <cell r="D61">
+            <v>24.4125817788143</v>
+          </cell>
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+          <cell r="F61">
+            <v>19.952026430991499</v>
+          </cell>
+          <cell r="G61">
+            <v>41.9083739474924</v>
+          </cell>
+          <cell r="H61">
+            <v>33.977133375184003</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>43912</v>
+          </cell>
+          <cell r="B62">
+            <v>25.846602703012199</v>
+          </cell>
+          <cell r="C62">
+            <v>27.444081159354699</v>
+          </cell>
+          <cell r="D62">
+            <v>27.054579045089099</v>
+          </cell>
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+          <cell r="F62">
+            <v>19.071429416066099</v>
+          </cell>
+          <cell r="G62">
+            <v>40.750680925336603</v>
+          </cell>
+          <cell r="H62">
+            <v>36.643800041850596</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>43913</v>
+          </cell>
+          <cell r="B63">
+            <v>22.399391342649999</v>
+          </cell>
+          <cell r="C63">
+            <v>21.899526703909199</v>
+          </cell>
+          <cell r="D63">
+            <v>24.002444704381301</v>
+          </cell>
+          <cell r="E63">
+            <v>5.8064516129032198</v>
+          </cell>
+          <cell r="F63">
+            <v>22.9719827066893</v>
+          </cell>
+          <cell r="G63">
+            <v>42.609208364053899</v>
+          </cell>
+          <cell r="H63">
+            <v>28.489151085493901</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>43914</v>
+          </cell>
+          <cell r="B64">
+            <v>26.7404766139678</v>
+          </cell>
+          <cell r="C64">
+            <v>23.290405531354999</v>
+          </cell>
+          <cell r="D64">
+            <v>24.560914879083601</v>
+          </cell>
+          <cell r="E64">
+            <v>8.3064516129032206</v>
+          </cell>
+          <cell r="F64">
+            <v>21.710595419061001</v>
+          </cell>
+          <cell r="G64">
+            <v>31.682657299681001</v>
+          </cell>
+          <cell r="H64">
+            <v>30.2652730747505</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>43915</v>
+          </cell>
+          <cell r="B65">
+            <v>30.243661327343599</v>
+          </cell>
+          <cell r="C65">
+            <v>25.499515417169601</v>
+          </cell>
+          <cell r="D65">
+            <v>24.540450829018202</v>
+          </cell>
+          <cell r="E65">
+            <v>9.2842293906810003</v>
+          </cell>
+          <cell r="F65">
+            <v>20.576845066189499</v>
+          </cell>
+          <cell r="G65">
+            <v>28.174003106328101</v>
+          </cell>
+          <cell r="H65">
+            <v>28.677394286871699</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>43916</v>
+          </cell>
+          <cell r="B66">
+            <v>11.074416537550601</v>
+          </cell>
+          <cell r="C66">
+            <v>24.3926747016524</v>
+          </cell>
+          <cell r="D66">
+            <v>20.621519637012302</v>
+          </cell>
+          <cell r="E66">
+            <v>13.8605005771216</v>
+          </cell>
+          <cell r="F66">
+            <v>23.388051554716299</v>
+          </cell>
+          <cell r="G66">
+            <v>26.853756630921001</v>
+          </cell>
+          <cell r="H66">
+            <v>31.1703982501088</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>43917</v>
+          </cell>
+          <cell r="B67">
+            <v>12.361058284550399</v>
+          </cell>
+          <cell r="C67">
+            <v>16.533177764177601</v>
+          </cell>
+          <cell r="D67">
+            <v>16.1895020207172</v>
+          </cell>
+          <cell r="E67">
+            <v>17.170845404707801</v>
+          </cell>
+          <cell r="F67">
+            <v>23.171215358536401</v>
+          </cell>
+          <cell r="G67">
+            <v>24.427314426783099</v>
+          </cell>
+          <cell r="H67">
+            <v>33.3780485233329</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>43918</v>
+          </cell>
+          <cell r="B68">
+            <v>14.079199877470799</v>
+          </cell>
+          <cell r="C68">
+            <v>19.560437448539201</v>
+          </cell>
+          <cell r="D68">
+            <v>16.8552551985028</v>
+          </cell>
+          <cell r="E68">
+            <v>15.447234028491</v>
+          </cell>
+          <cell r="F68">
+            <v>19.414440026170801</v>
+          </cell>
+          <cell r="G68">
+            <v>22.412437415497902</v>
+          </cell>
+          <cell r="H68">
+            <v>24.4121124125089</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>43919</v>
+          </cell>
+          <cell r="B69">
+            <v>13.1189700033016</v>
+          </cell>
+          <cell r="C69">
+            <v>17.2370077263603</v>
+          </cell>
+          <cell r="D69">
+            <v>14.2376242808517</v>
+          </cell>
+          <cell r="E69">
+            <v>16.387037468294402</v>
+          </cell>
+          <cell r="F69">
+            <v>18.3451170257534</v>
+          </cell>
+          <cell r="G69">
+            <v>20.907976393447498</v>
+          </cell>
+          <cell r="H69">
+            <v>18.366995050808601</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>43920</v>
+          </cell>
+          <cell r="B70">
+            <v>11.4276319798213</v>
+          </cell>
+          <cell r="C70">
+            <v>14.7171509085917</v>
+          </cell>
+          <cell r="D70">
+            <v>12.8485911121934</v>
+          </cell>
+          <cell r="E70">
+            <v>16.7090500469108</v>
+          </cell>
+          <cell r="F70">
+            <v>19.181354428976</v>
+          </cell>
+          <cell r="G70">
+            <v>19.000811204085998</v>
+          </cell>
+          <cell r="H70">
+            <v>13.7432726625313</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>43921</v>
+          </cell>
+          <cell r="B71">
+            <v>11.354036994670199</v>
+          </cell>
+          <cell r="C71">
+            <v>10.984341478336299</v>
+          </cell>
+          <cell r="D71">
+            <v>9.8494417437247002</v>
+          </cell>
+          <cell r="E71">
+            <v>15.597345789604001</v>
+          </cell>
+          <cell r="F71">
+            <v>16.135708184590499</v>
+          </cell>
+          <cell r="G71">
+            <v>16.7265628634084</v>
+          </cell>
+          <cell r="H71">
+            <v>7.8748893656952896</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>43922</v>
+          </cell>
+          <cell r="B72">
+            <v>9.5827522190515797</v>
+          </cell>
+          <cell r="C72">
+            <v>9.3801188044132804</v>
+          </cell>
+          <cell r="D72">
+            <v>8.6130759547602995</v>
+          </cell>
+          <cell r="E72">
+            <v>16.582302975440602</v>
+          </cell>
+          <cell r="F72">
+            <v>15.127256115118501</v>
+          </cell>
+          <cell r="G72">
+            <v>15.093509370239</v>
+          </cell>
+          <cell r="H72">
+            <v>3.12206065663222</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>43923</v>
+          </cell>
+          <cell r="B73">
+            <v>4.64627878909989</v>
+          </cell>
+          <cell r="C73">
+            <v>7.4132556161328704</v>
+          </cell>
+          <cell r="D73">
+            <v>6.2627116212255798</v>
+          </cell>
+          <cell r="E73">
+            <v>15.5381367719034</v>
+          </cell>
+          <cell r="F73">
+            <v>16.1797697169632</v>
+          </cell>
+          <cell r="G73">
+            <v>14.064758193599999</v>
+          </cell>
+          <cell r="H73">
+            <v>4.0610267341598201</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>43924</v>
+          </cell>
+          <cell r="B74">
+            <v>1.03553833447995</v>
+          </cell>
+          <cell r="C74">
+            <v>6.0243658179431101</v>
+          </cell>
+          <cell r="D74">
+            <v>4.59457041977464</v>
+          </cell>
+          <cell r="E74">
+            <v>14.880107912435699</v>
+          </cell>
+          <cell r="F74">
+            <v>15.484541174192</v>
+          </cell>
+          <cell r="G74">
+            <v>13.7782665190496</v>
+          </cell>
+          <cell r="H74">
+            <v>2.3826652946043501</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>43925</v>
+          </cell>
+          <cell r="B75">
+            <v>-1.5072053653822901</v>
+          </cell>
+          <cell r="C75">
+            <v>4.1915061239005897</v>
+          </cell>
+          <cell r="D75">
+            <v>3.3585719313365399</v>
+          </cell>
+          <cell r="E75">
+            <v>16.632949134988898</v>
+          </cell>
+          <cell r="F75">
+            <v>12.4494449638327</v>
+          </cell>
+          <cell r="G75">
+            <v>13.2967795998235</v>
+          </cell>
+          <cell r="H75">
+            <v>2.8029745364278398</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5247,17 +5750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5357,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5383,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5409,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5426,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5435,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5452,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5461,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5478,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5487,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5504,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5513,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5530,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5539,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5556,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5565,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5582,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5591,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5608,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5617,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5634,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5643,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5660,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5669,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -5686,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5695,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5712,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5721,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5738,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5747,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5764,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5773,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5790,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5799,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -5816,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5825,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -5851,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5862,13 +6362,13 @@
         <v>43874</v>
       </c>
       <c r="B24">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5877,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5888,13 +6388,13 @@
         <v>43875</v>
       </c>
       <c r="B25">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5903,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5914,13 +6414,13 @@
         <v>43876</v>
       </c>
       <c r="B26">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5929,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -5940,13 +6440,13 @@
         <v>43877</v>
       </c>
       <c r="B27">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5955,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -5966,13 +6466,13 @@
         <v>43878</v>
       </c>
       <c r="B28">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5981,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -5998,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6024,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6050,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6076,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -6085,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -6102,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6111,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -6128,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6137,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -6154,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6163,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -6180,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6189,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>42</v>
+        <v>11.5833333333333</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -6206,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6215,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>14.136524822695</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6232,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -6241,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>14.513883313260999</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6258,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6267,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>14.8842536836314</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -6284,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6293,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>5.4297082290859802</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -6310,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -6319,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>7.78185876672039</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6330,13 +6830,13 @@
         <v>43892</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -6345,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>11.111020218535099</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -6356,13 +6856,13 @@
         <v>43893</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -6371,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>15.0518435461509</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -6382,13 +6882,13 @@
         <v>43894</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>8.8888888888888804</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6397,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>19.728202147743101</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -6408,13 +6908,13 @@
         <v>43895</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>5.2991452991452901</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6423,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>27</v>
+        <v>27.1827476022886</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -6434,13 +6934,13 @@
         <v>43896</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>8.4241452991452892</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6449,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>31</v>
+        <v>30.719900547241298</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -6460,13 +6960,13 @@
         <v>43897</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>94</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>10.0457669207669</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -6475,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>35</v>
+        <v>35.462547606064803</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -6486,13 +6986,13 @@
         <v>43898</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>8.8612836438923406</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>15.5457669207669</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6501,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>37</v>
+        <v>37.062733134821698</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -6512,13 +7012,13 @@
         <v>43899</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>15.3128965471181</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>12.539230973054501</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6527,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>35</v>
+        <v>34.653799438449703</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -6538,13 +7038,13 @@
         <v>43900</v>
       </c>
       <c r="B50">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>19.215335571508302</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>21.280489714313202</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6553,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>37</v>
+        <v>36.758147264536603</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -6564,25 +7064,25 @@
         <v>43901</v>
       </c>
       <c r="B51">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>23.2969682245696</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>23.215730678168601</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>4.5714285714285703</v>
       </c>
       <c r="G51">
-        <v>38</v>
+        <v>38.089410773643301</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -6590,25 +7090,25 @@
         <v>43902</v>
       </c>
       <c r="B52">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>21.392206319807698</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>21.594109056547001</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>9.1063122923587994</v>
       </c>
       <c r="G52">
-        <v>34</v>
+        <v>33.511298405009498</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -6616,25 +7116,25 @@
         <v>43903</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>-6</v>
+        <v>23.5882269535586</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>29.5556475180855</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-11</v>
+        <v>14.888302813685801</v>
       </c>
       <c r="G53">
-        <v>34</v>
+        <v>33.911987544725001</v>
       </c>
       <c r="H53">
-        <v>-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -6642,25 +7142,25 @@
         <v>43904</v>
       </c>
       <c r="B54">
-        <v>-7</v>
+        <v>9.2857142857142794</v>
       </c>
       <c r="C54">
-        <v>-12</v>
+        <v>21.787776841030499</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>29.4204210136906</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-11</v>
+        <v>19.079479284274001</v>
       </c>
       <c r="G54">
-        <v>36</v>
+        <v>36.368531891776001</v>
       </c>
       <c r="H54">
-        <v>-11</v>
+        <v>11.6666666666666</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -6668,25 +7168,25 @@
         <v>43905</v>
       </c>
       <c r="B55">
-        <v>-11</v>
+        <v>13.1881533101045</v>
       </c>
       <c r="C55">
-        <v>-12</v>
+        <v>22.036281212866601</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>28.465334433603999</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-6</v>
+        <v>24.246652536553601</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>30.008544967944601</v>
       </c>
       <c r="H55">
-        <v>-6</v>
+        <v>18.508771929824501</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -6694,25 +7194,25 @@
         <v>43906</v>
       </c>
       <c r="B56">
-        <v>-10</v>
+        <v>18.902439024390201</v>
       </c>
       <c r="C56">
-        <v>-10</v>
+        <v>23.735898559805399</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>29.309152510339</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-4</v>
+        <v>25.95541720184</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>29.664925016749301</v>
       </c>
       <c r="H56">
-        <v>-4</v>
+        <v>22.8224974200206</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -6720,25 +7220,25 @@
         <v>43907</v>
       </c>
       <c r="B57">
-        <v>-3</v>
+        <v>26.204026325977502</v>
       </c>
       <c r="C57">
-        <v>-6</v>
+        <v>28.220747044653901</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>33.468696669883201</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-4</v>
+        <v>26.4205334809098</v>
       </c>
       <c r="G57">
-        <v>31</v>
+        <v>31.414946877656899</v>
       </c>
       <c r="H57">
-        <v>-4</v>
+        <v>22.8224974200206</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -6746,25 +7246,25 @@
         <v>43908</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>32.483096093419398</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>24.612759127218101</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>25.431686510231501</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>18</v>
+        <v>22.344425312523999</v>
       </c>
       <c r="G58">
-        <v>29</v>
+        <v>29.117491407521001</v>
       </c>
       <c r="H58">
-        <v>18</v>
+        <v>40.241852258730297</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -6772,25 +7272,25 @@
         <v>43909</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>23.197381807705099</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>23.062371530318899</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>23.7661927265111</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>23</v>
+        <v>23.4649019584669</v>
       </c>
       <c r="G59">
-        <v>39</v>
+        <v>39.389456995141401</v>
       </c>
       <c r="H59">
-        <v>23</v>
+        <v>34.4372545575809</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -6798,25 +7298,25 @@
         <v>43910</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>19.294942783314799</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>21.931562362280399</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>22.928778022570999</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>23</v>
+        <v>23.008649477065202</v>
       </c>
       <c r="G60">
-        <v>42</v>
+        <v>41.628942937037699</v>
       </c>
       <c r="H60">
-        <v>23</v>
+        <v>34.528482627756297</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -6824,25 +7324,25 @@
         <v>43911</v>
       </c>
       <c r="B61">
-        <v>33</v>
+        <v>32.695701316816702</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>20.989962508052901</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>24.4125817788143</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>19.952026430991499</v>
       </c>
       <c r="G61">
-        <v>42</v>
+        <v>41.9083739474924</v>
       </c>
       <c r="H61">
-        <v>20</v>
+        <v>33.977133375184003</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -6850,25 +7350,25 @@
         <v>43912</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>25.846602703012199</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>27.444081159354699</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>27.054579045089099</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>19</v>
+        <v>19.071429416066099</v>
       </c>
       <c r="G62">
-        <v>41</v>
+        <v>40.750680925336603</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>36.643800041850596</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -6876,25 +7376,25 @@
         <v>43913</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>22.399391342649999</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>21.899526703909199</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>24.002444704381301</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>5.8064516129032198</v>
       </c>
       <c r="F63">
-        <v>23</v>
+        <v>22.9719827066893</v>
       </c>
       <c r="G63">
-        <v>43</v>
+        <v>42.609208364053899</v>
       </c>
       <c r="H63">
-        <v>23</v>
+        <v>28.489151085493901</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -6902,25 +7402,25 @@
         <v>43914</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>26.7404766139678</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>23.290405531354999</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>24.560914879083601</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>8.3064516129032206</v>
       </c>
       <c r="F64">
-        <v>22</v>
+        <v>21.710595419061001</v>
       </c>
       <c r="G64">
-        <v>32</v>
+        <v>31.682657299681001</v>
       </c>
       <c r="H64">
-        <v>22</v>
+        <v>30.2652730747505</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -6928,25 +7428,25 @@
         <v>43915</v>
       </c>
       <c r="B65">
-        <v>30</v>
+        <v>30.243661327343599</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>25.499515417169601</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>24.540450829018202</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>9.2842293906810003</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>20.576845066189499</v>
       </c>
       <c r="G65">
-        <v>28</v>
+        <v>28.174003106328101</v>
       </c>
       <c r="H65">
-        <v>21</v>
+        <v>28.677394286871699</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -6954,25 +7454,25 @@
         <v>43916</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>11.074416537550601</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>24.3926747016524</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>20.621519637012302</v>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>13.8605005771216</v>
       </c>
       <c r="F66">
-        <v>23</v>
+        <v>23.388051554716299</v>
       </c>
       <c r="G66">
-        <v>27</v>
+        <v>26.853756630921001</v>
       </c>
       <c r="H66">
-        <v>23</v>
+        <v>31.1703982501088</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -6980,25 +7480,25 @@
         <v>43917</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>12.361058284550399</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>16.533177764177601</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>16.1895020207172</v>
       </c>
       <c r="E67">
-        <v>17</v>
+        <v>17.170845404707801</v>
       </c>
       <c r="F67">
-        <v>23</v>
+        <v>23.171215358536401</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>24.427314426783099</v>
       </c>
       <c r="H67">
-        <v>23</v>
+        <v>33.3780485233329</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7006,25 +7506,25 @@
         <v>43918</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>14.079199877470799</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>19.560437448539201</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>16.8552551985028</v>
       </c>
       <c r="E68">
-        <v>15</v>
+        <v>15.447234028491</v>
       </c>
       <c r="F68">
-        <v>19</v>
+        <v>19.414440026170801</v>
       </c>
       <c r="G68">
-        <v>22</v>
+        <v>22.412437415497902</v>
       </c>
       <c r="H68">
-        <v>19</v>
+        <v>24.4121124125089</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -7032,25 +7532,25 @@
         <v>43919</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>13.1189700033016</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>17.2370077263603</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>14.2376242808517</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>16.387037468294402</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>18.3451170257534</v>
       </c>
       <c r="G69">
-        <v>21</v>
+        <v>20.907976393447498</v>
       </c>
       <c r="H69">
-        <v>18</v>
+        <v>18.366995050808601</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -7058,25 +7558,25 @@
         <v>43920</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>11.4276319798213</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>14.7171509085917</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>12.8485911121934</v>
       </c>
       <c r="E70">
-        <v>17</v>
+        <v>16.7090500469108</v>
       </c>
       <c r="F70">
-        <v>19</v>
+        <v>19.181354428976</v>
       </c>
       <c r="G70">
-        <v>19</v>
+        <v>19.000811204085998</v>
       </c>
       <c r="H70">
-        <v>19</v>
+        <v>13.7432726625313</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7084,25 +7584,25 @@
         <v>43921</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>11.354036994670199</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>10.984341478336299</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>9.8494417437247002</v>
       </c>
       <c r="E71">
-        <v>16</v>
+        <v>15.597345789604001</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>16.135708184590499</v>
       </c>
       <c r="G71">
-        <v>17</v>
+        <v>16.7265628634084</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>7.8748893656952896</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -7110,25 +7610,25 @@
         <v>43922</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>9.5827522190515797</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>9.3801188044132804</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>8.6130759547602995</v>
       </c>
       <c r="E72">
-        <v>17</v>
+        <v>16.582302975440602</v>
       </c>
       <c r="F72">
-        <v>15</v>
+        <v>15.127256115118501</v>
       </c>
       <c r="G72">
-        <v>15</v>
+        <v>15.093509370239</v>
       </c>
       <c r="H72">
-        <v>15</v>
+        <v>3.12206065663222</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -7136,25 +7636,25 @@
         <v>43923</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>4.64627878909989</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>7.4132556161328704</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>6.2627116212255798</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>15.5381367719034</v>
       </c>
       <c r="F73">
-        <v>16</v>
+        <v>16.1797697169632</v>
       </c>
       <c r="G73">
-        <v>14</v>
+        <v>14.064758193599999</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>4.0610267341598201</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -7162,25 +7662,25 @@
         <v>43924</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>1.03553833447995</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>6.0243658179431101</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>4.59457041977464</v>
       </c>
       <c r="E74">
-        <v>15</v>
+        <v>14.880107912435699</v>
       </c>
       <c r="F74">
-        <v>15</v>
+        <v>15.484541174192</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>13.7782665190496</v>
       </c>
       <c r="H74">
-        <v>15</v>
+        <v>2.3826652946043501</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -7188,25 +7688,25 @@
         <v>43925</v>
       </c>
       <c r="B75">
-        <v>-2</v>
+        <v>-1.5072053653822901</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>4.1915061239005897</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>3.3585719313365399</v>
       </c>
       <c r="E75">
-        <v>17</v>
+        <v>16.632949134988898</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>12.4494449638327</v>
       </c>
       <c r="G75">
-        <v>13</v>
+        <v>13.2967795998235</v>
       </c>
       <c r="H75">
-        <v>12</v>
+        <v>2.8029745364278398</v>
       </c>
     </row>
   </sheetData>
